--- a/Assets/Excel/LevelDataConfig.xlsx
+++ b/Assets/Excel/LevelDataConfig.xlsx
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
